--- a/data/NO1.xlsx
+++ b/data/NO1.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>NO1</t>
@@ -15763,7 +15763,7 @@
         <v>4.7065827923E10</v>
       </c>
       <c r="E12" s="25" t="n">
-        <v>8.1337221329E10</v>
+        <v>1.05537221329E11</v>
       </c>
       <c r="G12" s="25" t="n">
         <v>6.4304356658E10</v>
@@ -15799,7 +15799,7 @@
         <v>5.3555433749E10</v>
       </c>
       <c r="R12" s="25" t="n">
-        <v>8.1337221329E10</v>
+        <v>1.05537221329E11</v>
       </c>
       <c r="S12" s="25" t="n">
         <v>8.0439334171E10</v>
@@ -16011,7 +16011,7 @@
         <v>2.3788227403E10</v>
       </c>
       <c r="E16" s="25" t="n">
-        <v>6.2845789702E10</v>
+        <v>8.7045789702E10</v>
       </c>
       <c r="G16" s="25" t="n">
         <v>5.1056E10</v>
@@ -16047,7 +16047,7 @@
         <v>4.23528E10</v>
       </c>
       <c r="R16" s="25" t="n">
-        <v>6.2845789702E10</v>
+        <v>8.7045789702E10</v>
       </c>
       <c r="S16" s="25" t="n">
         <v>7.2705002177E10</v>
@@ -16073,7 +16073,7 @@
         <v>9.6657039267E10</v>
       </c>
       <c r="E17" s="25" t="n">
-        <v>1.08277127899E11</v>
+        <v>8.4076975267E10</v>
       </c>
       <c r="G17" s="25" t="n">
         <v>0.0</v>
@@ -16109,7 +16109,7 @@
         <v>1.24930551267E11</v>
       </c>
       <c r="R17" s="25" t="n">
-        <v>1.08277127899E11</v>
+        <v>8.4076975267E10</v>
       </c>
       <c r="S17" s="25" t="n">
         <v>4.0E9</v>
@@ -16197,7 +16197,7 @@
         <v>9.6657039267E10</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>1.08277127899E11</v>
+        <v>8.4076975267E10</v>
       </c>
       <c r="G19" s="25" t="n">
         <v>0.0</v>
@@ -16233,7 +16233,7 @@
         <v>1.24930551267E11</v>
       </c>
       <c r="R19" s="25" t="n">
-        <v>1.08277127899E11</v>
+        <v>8.4076975267E10</v>
       </c>
       <c r="S19" s="25" t="n">
         <v>4.0E9</v>
@@ -16259,7 +16259,7 @@
         <v>9.6657039267E10</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>1.08277127899E11</v>
+        <v>8.4076975267E10</v>
       </c>
       <c r="G20" s="25" t="n">
         <v>0.0</v>
@@ -16295,7 +16295,7 @@
         <v>1.24930551267E11</v>
       </c>
       <c r="R20" s="25" t="n">
-        <v>1.08277127899E11</v>
+        <v>8.4076975267E10</v>
       </c>
       <c r="S20" s="25" t="n">
         <v>4.0E9</v>
@@ -19297,7 +19297,7 @@
         <v>5.362365E7</v>
       </c>
       <c r="E69" s="25" t="n">
-        <v>6.4375815E7</v>
+        <v>6.4395E7</v>
       </c>
       <c r="G69" s="25" t="n">
         <v>1.602045E7</v>
@@ -19333,7 +19333,7 @@
         <v>6.4375815E7</v>
       </c>
       <c r="R69" s="25" t="n">
-        <v>6.4375815E7</v>
+        <v>6.4395E7</v>
       </c>
       <c r="S69" s="25" t="n">
         <v>6.4395E7</v>
@@ -19421,7 +19421,7 @@
         <v>2.1445575E7</v>
       </c>
       <c r="E71" s="25" t="n">
-        <v>1.0752165E7</v>
+        <v>1.077135E7</v>
       </c>
       <c r="G71" s="25" t="n">
         <v>5287950.0</v>
@@ -19457,7 +19457,7 @@
         <v>1.0752165E7</v>
       </c>
       <c r="R71" s="25" t="n">
-        <v>1.0752165E7</v>
+        <v>1.077135E7</v>
       </c>
       <c r="S71" s="25" t="n">
         <v>0.0</v>
@@ -19917,7 +19917,7 @@
         <v>5.6871477326E10</v>
       </c>
       <c r="E79" s="25" t="n">
-        <v>5.3067712746E10</v>
+        <v>5.1932038368E10</v>
       </c>
       <c r="G79" s="25" t="n">
         <v>4.7789851677E10</v>
@@ -19953,7 +19953,7 @@
         <v>5.8156678873E10</v>
       </c>
       <c r="R79" s="25" t="n">
-        <v>5.3067712746E10</v>
+        <v>5.1932038368E10</v>
       </c>
       <c r="S79" s="25" t="n">
         <v>7.363242435E10</v>
@@ -19979,7 +19979,7 @@
         <v>4.9513512017E10</v>
       </c>
       <c r="E80" s="25" t="n">
-        <v>4.9935753255E10</v>
+        <v>4.8330578247E10</v>
       </c>
       <c r="G80" s="25" t="n">
         <v>4.7789851677E10</v>
@@ -20015,7 +20015,7 @@
         <v>5.3337202244E10</v>
       </c>
       <c r="R80" s="25" t="n">
-        <v>4.9935753255E10</v>
+        <v>4.8330578247E10</v>
       </c>
       <c r="S80" s="25" t="n">
         <v>7.2063493856E10</v>
@@ -20041,7 +20041,7 @@
         <v>7.357965309E9</v>
       </c>
       <c r="E81" s="25" t="n">
-        <v>3.131959491E9</v>
+        <v>3.601460121E9</v>
       </c>
       <c r="G81" s="25" t="n">
         <v>0.0</v>
@@ -20077,7 +20077,7 @@
         <v>4.819476629E9</v>
       </c>
       <c r="R81" s="25" t="n">
-        <v>3.131959491E9</v>
+        <v>3.601460121E9</v>
       </c>
       <c r="S81" s="25" t="n">
         <v>1.568930494E9</v>
@@ -20599,7 +20599,7 @@
         <v>6.250939075E9</v>
       </c>
       <c r="E90" s="25" t="n">
-        <v>7.256038211E9</v>
+        <v>7.24686466E9</v>
       </c>
       <c r="G90" s="25" t="n">
         <v>1.364985889E9</v>
@@ -20635,7 +20635,7 @@
         <v>5.574674025E9</v>
       </c>
       <c r="R90" s="25" t="n">
-        <v>7.256038211E9</v>
+        <v>7.24686466E9</v>
       </c>
       <c r="S90" s="25" t="n">
         <v>6.322739905E9</v>
@@ -20661,7 +20661,7 @@
         <v>1.178739806E9</v>
       </c>
       <c r="E91" s="25" t="n">
-        <v>1.5442036E9</v>
+        <v>1.541734617E9</v>
       </c>
       <c r="G91" s="25" t="n">
         <v>1.9704825E8</v>
@@ -20697,7 +20697,7 @@
         <v>5.55509962E8</v>
       </c>
       <c r="R91" s="25" t="n">
-        <v>1.5442036E9</v>
+        <v>1.541734617E9</v>
       </c>
       <c r="S91" s="25" t="n">
         <v>0.0</v>
@@ -20847,7 +20847,7 @@
         <v>4.242613837E9</v>
       </c>
       <c r="E94" s="25" t="n">
-        <v>4.667664253E9</v>
+        <v>4.660959685E9</v>
       </c>
       <c r="G94" s="25" t="n">
         <v>1.12694571E9</v>
@@ -20883,7 +20883,7 @@
         <v>4.583617268E9</v>
       </c>
       <c r="R94" s="25" t="n">
-        <v>4.667664253E9</v>
+        <v>4.660959685E9</v>
       </c>
       <c r="S94" s="25" t="n">
         <v>5.286614507E9</v>
@@ -22149,7 +22149,7 @@
         <v>6.882834499E9</v>
       </c>
       <c r="E115" s="25" t="n">
-        <v>1.640798911E9</v>
+        <v>2.776473289E9</v>
       </c>
       <c r="G115" s="25" t="n">
         <v>1.0967145607E10</v>
@@ -22185,7 +22185,7 @@
         <v>2.967043186E9</v>
       </c>
       <c r="R115" s="25" t="n">
-        <v>1.640798911E9</v>
+        <v>2.776473289E9</v>
       </c>
       <c r="S115" s="25" t="n">
         <v>2.278682932E9</v>
@@ -22397,7 +22397,7 @@
         <v>3.124000356E9</v>
       </c>
       <c r="E119" s="25" t="n">
-        <v>2.9278435E8</v>
+        <v>1.428458728E9</v>
       </c>
       <c r="G119" s="25" t="n">
         <v>0.0</v>
@@ -22433,7 +22433,7 @@
         <v>1.217734873E9</v>
       </c>
       <c r="R119" s="25" t="n">
-        <v>2.9278435E8</v>
+        <v>1.428458728E9</v>
       </c>
       <c r="S119" s="25" t="n">
         <v>9.30668371E8</v>
@@ -22707,7 +22707,7 @@
         <v>6.11497370615E11</v>
       </c>
       <c r="E124" s="25" t="n">
-        <v>0.0</v>
+        <v>8.02345438436E11</v>
       </c>
       <c r="G124" s="25" t="n">
         <v>1.20564620378E11</v>
@@ -22743,7 +22743,7 @@
         <v>2.26230874277E11</v>
       </c>
       <c r="R124" s="25" t="n">
-        <v>1.33812183974E11</v>
+        <v>1.30154776567E11</v>
       </c>
       <c r="S124" s="25" t="n">
         <v>2.27375559126E11</v>
@@ -22769,7 +22769,7 @@
         <v>6.06951150073E11</v>
       </c>
       <c r="E125" s="25" t="n">
-        <v>0.0</v>
+        <v>7.99512249691E11</v>
       </c>
       <c r="G125" s="25" t="n">
         <v>1.18091582011E11</v>
@@ -22805,7 +22805,7 @@
         <v>2.25239297001E11</v>
       </c>
       <c r="R125" s="25" t="n">
-        <v>1.30165773834E11</v>
+        <v>1.29508366427E11</v>
       </c>
       <c r="S125" s="25" t="n">
         <v>2.27347596163E11</v>
@@ -22831,7 +22831,7 @@
         <v>4.546220542E9</v>
       </c>
       <c r="E126" s="25" t="n">
-        <v>0.0</v>
+        <v>2.833188745E9</v>
       </c>
       <c r="G126" s="25" t="n">
         <v>2.473038367E9</v>
@@ -22867,7 +22867,7 @@
         <v>9.91577276E8</v>
       </c>
       <c r="R126" s="25" t="n">
-        <v>3.64641014E9</v>
+        <v>6.4641014E8</v>
       </c>
       <c r="S126" s="25" t="n">
         <v>2.7962963E7</v>
@@ -23389,7 +23389,7 @@
         <v>5.76670582359E11</v>
       </c>
       <c r="E135" s="25" t="n">
-        <v>0.0</v>
+        <v>7.49216646115E11</v>
       </c>
       <c r="G135" s="25" t="n">
         <v>1.09281456051E11</v>
@@ -23425,7 +23425,7 @@
         <v>2.11427388056E11</v>
       </c>
       <c r="R135" s="25" t="n">
-        <v>1.32107657327E11</v>
+        <v>1.30036837509E11</v>
       </c>
       <c r="S135" s="25" t="n">
         <v>2.09663026702E11</v>
@@ -23451,7 +23451,7 @@
         <v>5.6664157694E11</v>
       </c>
       <c r="E136" s="25" t="n">
-        <v>0.0</v>
+        <v>7.42193960583E11</v>
       </c>
       <c r="G136" s="25" t="n">
         <v>1.07734936053E11</v>
@@ -23487,7 +23487,7 @@
         <v>2.10842999269E11</v>
       </c>
       <c r="R136" s="25" t="n">
-        <v>1.28063936204E11</v>
+        <v>1.26273305654E11</v>
       </c>
       <c r="S136" s="25" t="n">
         <v>2.09593150654E11</v>
@@ -23575,7 +23575,7 @@
         <v>1.0029005419E10</v>
       </c>
       <c r="E138" s="25" t="n">
-        <v>0.0</v>
+        <v>5.436250575E9</v>
       </c>
       <c r="G138" s="25" t="n">
         <v>1.546519998E9</v>
@@ -23611,7 +23611,7 @@
         <v>5.84388787E8</v>
       </c>
       <c r="R138" s="25" t="n">
-        <v>4.043721123E9</v>
+        <v>2.177096898E9</v>
       </c>
       <c r="S138" s="25" t="n">
         <v>6.9876048E7</v>
@@ -23885,7 +23885,7 @@
         <v>0.0</v>
       </c>
       <c r="E143" s="25" t="n">
-        <v>0.0</v>
+        <v>1.586434957E9</v>
       </c>
       <c r="G143" s="25" t="n">
         <v>0.0</v>
@@ -23921,7 +23921,7 @@
         <v>0.0</v>
       </c>
       <c r="R143" s="25" t="n">
-        <v>0.0</v>
+        <v>1.586434957E9</v>
       </c>
       <c r="S143" s="25" t="n">
         <v>0.0</v>
@@ -23947,7 +23947,7 @@
         <v>3.7533647597E10</v>
       </c>
       <c r="E144" s="25" t="n">
-        <v>1.6112346747E10</v>
+        <v>1.6136856747E10</v>
       </c>
       <c r="G144" s="25" t="n">
         <v>2.4485316E7</v>
@@ -23983,7 +23983,7 @@
         <v>2.107662272E9</v>
       </c>
       <c r="R144" s="25" t="n">
-        <v>1.1698154314E10</v>
+        <v>1.1722664314E10</v>
       </c>
       <c r="S144" s="25" t="n">
         <v>3.21051781E8</v>
@@ -24009,7 +24009,7 @@
         <v>2.823343804E10</v>
       </c>
       <c r="E145" s="25" t="n">
-        <v>6.439800737E9</v>
+        <v>6.329811037E9</v>
       </c>
       <c r="G145" s="25" t="n">
         <v>-7684116.0</v>
@@ -24045,7 +24045,7 @@
         <v>2.107662272E9</v>
       </c>
       <c r="R145" s="25" t="n">
-        <v>2.371610826E9</v>
+        <v>2.261621126E9</v>
       </c>
       <c r="S145" s="25" t="n">
         <v>3.18790191E8</v>
@@ -24319,7 +24319,7 @@
         <v>0.0</v>
       </c>
       <c r="E150" s="25" t="n">
-        <v>9.35548623E9</v>
+        <v>8.53402192E8</v>
       </c>
       <c r="G150" s="25" t="n">
         <v>3.2169432E7</v>
@@ -24355,7 +24355,7 @@
         <v>0.0</v>
       </c>
       <c r="R150" s="25" t="n">
-        <v>9.326543488E9</v>
+        <v>8.2445945E8</v>
       </c>
       <c r="S150" s="25" t="n">
         <v>2261590.0</v>
@@ -24381,7 +24381,7 @@
         <v>0.0</v>
       </c>
       <c r="E151" s="25" t="n">
-        <v>3.1705978E8</v>
+        <v>0.0</v>
       </c>
       <c r="G151" s="25" t="n">
         <v>0.0</v>
@@ -24417,7 +24417,7 @@
         <v>0.0</v>
       </c>
       <c r="R151" s="25" t="n">
-        <v>0.0</v>
+        <v>-3.1705978E8</v>
       </c>
       <c r="S151" s="25" t="n">
         <v>0.0</v>
@@ -24505,7 +24505,7 @@
         <v>9.300209557E9</v>
       </c>
       <c r="E153" s="25" t="n">
-        <v>0.0</v>
+        <v>8.953643518E9</v>
       </c>
       <c r="G153" s="25" t="n">
         <v>0.0</v>
@@ -24541,7 +24541,7 @@
         <v>0.0</v>
       </c>
       <c r="R153" s="25" t="n">
-        <v>0.0</v>
+        <v>8.953643518E9</v>
       </c>
       <c r="S153" s="25" t="n">
         <v>0.0</v>
@@ -24567,7 +24567,7 @@
         <v>2.3892818532E10</v>
       </c>
       <c r="E154" s="25" t="n">
-        <v>1.1802810121E10</v>
+        <v>1.1827320121E10</v>
       </c>
       <c r="G154" s="25" t="n">
         <v>1.143940153E9</v>
@@ -24603,7 +24603,7 @@
         <v>1.08924177E9</v>
       </c>
       <c r="R154" s="25" t="n">
-        <v>4.447004864E9</v>
+        <v>4.471514864E9</v>
       </c>
       <c r="S154" s="25" t="n">
         <v>1.137791577E9</v>
@@ -24877,7 +24877,7 @@
         <v>1.3440492007E10</v>
       </c>
       <c r="E159" s="25" t="n">
-        <v>6.791546028E9</v>
+        <v>6.816056028E9</v>
       </c>
       <c r="G159" s="25" t="n">
         <v>3850.0</v>
@@ -24913,7 +24913,7 @@
         <v>0.0</v>
       </c>
       <c r="R159" s="25" t="n">
-        <v>3.2247702E9</v>
+        <v>3.2492802E9</v>
       </c>
       <c r="S159" s="25" t="n">
         <v>0.0</v>
@@ -25125,7 +25125,7 @@
         <v>0.0</v>
       </c>
       <c r="E163" s="25" t="n">
-        <v>0.0</v>
+        <v>8.3191027722E11</v>
       </c>
       <c r="G163" s="25" t="n">
         <v>0.0</v>
@@ -25187,7 +25187,7 @@
         <v>0.0</v>
       </c>
       <c r="E164" s="25" t="n">
-        <v>0.0</v>
+        <v>1.3175191926E10</v>
       </c>
       <c r="G164" s="25" t="n">
         <v>0.0</v>
@@ -25249,7 +25249,7 @@
         <v>0.0</v>
       </c>
       <c r="E165" s="25" t="n">
-        <v>0.0</v>
+        <v>7.32360009866E11</v>
       </c>
       <c r="G165" s="25" t="n">
         <v>0.0</v>
@@ -25311,7 +25311,7 @@
         <v>0.0</v>
       </c>
       <c r="E166" s="25" t="n">
-        <v>0.0</v>
+        <v>8.384753025E9</v>
       </c>
       <c r="G166" s="25" t="n">
         <v>0.0</v>
@@ -25373,7 +25373,7 @@
         <v>0.0</v>
       </c>
       <c r="E167" s="25" t="n">
-        <v>0.0</v>
+        <v>7.2917328625E10</v>
       </c>
       <c r="G167" s="25" t="n">
         <v>0.0</v>
@@ -25435,7 +25435,7 @@
         <v>0.0</v>
       </c>
       <c r="E168" s="25" t="n">
-        <v>0.0</v>
+        <v>5.072993778E9</v>
       </c>
       <c r="G168" s="25" t="n">
         <v>0.0</v>

--- a/data/NO1.xlsx
+++ b/data/NO1.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>NO1</t>

--- a/data/NO1.xlsx
+++ b/data/NO1.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>NO1</t>

--- a/data/NO1.xlsx
+++ b/data/NO1.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>NO1</t>
